--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322579.1967487817</v>
+        <v>320016.176412877</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>198.2034726183323</v>
+        <v>315.342603972217</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>374.204473369426</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>249.0719396942785</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>56.02280982629088</v>
+        <v>22.66160460810731</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>191.4266027823358</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>320.0601402632473</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>42.6215260475665</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>7.26765656529917</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.96073279094829</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>35.9524543521409</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.795885841555455</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>101.9372973505749</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.60395572453632</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890417</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181942</v>
+        <v>179.8319801819418</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>103.1686991936148</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.019807611467309</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503979</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.26758323426815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>211.8986685707638</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890383</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>62.50448303558152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.27810958517533</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.94196613735054</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>245.9454996361813</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5758943588665</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>198.1192036677481</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>135.5795121770518</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1005.344648689697</v>
+        <v>1084.81971816026</v>
       </c>
       <c r="C2" t="n">
-        <v>636.3821317492857</v>
+        <v>1084.81971816026</v>
       </c>
       <c r="D2" t="n">
-        <v>436.1766038519803</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="E2" t="n">
-        <v>436.1766038519803</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>429.2311031027768</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4364,16 +4364,16 @@
         <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1848.424808397151</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926589</v>
+        <v>1848.424808397151</v>
       </c>
       <c r="X2" t="n">
-        <v>1395.483980665509</v>
+        <v>1474.959050136071</v>
       </c>
       <c r="Y2" t="n">
-        <v>1005.344648689697</v>
+        <v>1084.81971816026</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>821.9680821844937</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.633399870996</v>
+        <v>224.2539356854977</v>
       </c>
       <c r="C4" t="n">
-        <v>510.6972169430891</v>
+        <v>224.2539356854977</v>
       </c>
       <c r="D4" t="n">
-        <v>360.5805775307533</v>
+        <v>74.13729627316201</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
         <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.699034738196</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>861.2818647012357</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>861.2818647012357</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="Y4" t="n">
-        <v>861.2818647012357</v>
+        <v>224.2539356854977</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1357.104639024234</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1357.104639024234</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.01262627016</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1747.243971000046</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.243971000046</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.104639024234</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
         <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>835.1063603656604</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C7" t="n">
-        <v>666.1701774377535</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D7" t="n">
-        <v>516.0535380254178</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>368.1404444430246</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1244.744376093917</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1244.744376093917</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>1016.7548251959</v>
+        <v>539.0918561847483</v>
       </c>
       <c r="Y7" t="n">
-        <v>1016.7548251959</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1192.384522157331</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C8" t="n">
-        <v>1184.34337792405</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D8" t="n">
-        <v>826.0776793172992</v>
+        <v>880.645441216167</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
         <v>433.3439259698515</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664336</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.989612394222</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1582.523854133143</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1192.384522157331</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180663</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.4948683002148</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6303371471284</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234359</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V10" t="n">
-        <v>1185.132884028472</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="W10" t="n">
-        <v>1185.132884028472</v>
+        <v>570.069098706262</v>
       </c>
       <c r="X10" t="n">
-        <v>957.1433331304545</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.1433331304545</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828081</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172278</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135318</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.899304487664</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597572</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597572</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597572</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>265.0731740618468</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>97.87707477672672</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,10 +5598,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277366</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>215.8238677453435</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453435</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358619</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2165.878320670276</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1876.803094014473</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014473</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977513</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314351</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
         <v>2092.798483612594</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>265.0731740618515</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373306</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,52 +7166,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591808</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>710.248605371872</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
         <v>261.0127623330919</v>
@@ -7321,61 +7321,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7427,31 +7427,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>377.6556127449245</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>230.7656652470141</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.2582814363236</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54.9531451156659</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566539</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>193.3273467878338</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>39.34043764846591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.343229403528</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>90.41115282027829</v>
+        <v>123.7723580384619</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>145.8014946027519</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295437</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>136.2749052347566</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187097</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012055</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>164.3170701178266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5.506781756524418</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>223.6799913536626</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>77.24602870709352</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.23897475306285</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>54.01843965607995</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>29.94462611521701</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>984879.3793647093</v>
+        <v>984879.3793647088</v>
       </c>
     </row>
     <row r="3">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019032</v>
+        <v>335917.986501903</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389271</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="E2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605024</v>
       </c>
       <c r="H2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="I2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605025</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605027</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605028</v>
@@ -26347,10 +26347,10 @@
         <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605028</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245453</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91763.11654919863</v>
+        <v>91763.11654919854</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26433,28 +26433,28 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731958</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426732036</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426731967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731925</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426731935</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732029</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-963534.6860630598</v>
+        <v>-963721.079451599</v>
       </c>
       <c r="C6" t="n">
+        <v>142213.0237372192</v>
+      </c>
+      <c r="D6" t="n">
         <v>142213.0237372188</v>
       </c>
-      <c r="D6" t="n">
-        <v>142213.0237372184</v>
-      </c>
       <c r="E6" t="n">
-        <v>-253509.3140146818</v>
+        <v>-253544.051940118</v>
       </c>
       <c r="F6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="G6" t="n">
-        <v>253976.1276098635</v>
+        <v>253941.3896844276</v>
       </c>
       <c r="H6" t="n">
-        <v>253976.1276098635</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="I6" t="n">
-        <v>253976.1276098635</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="J6" t="n">
-        <v>86370.94979988104</v>
+        <v>86336.21187444536</v>
       </c>
       <c r="K6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844278</v>
       </c>
       <c r="L6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.389684428</v>
       </c>
       <c r="M6" t="n">
-        <v>121368.8338809369</v>
+        <v>121334.0959555012</v>
       </c>
       <c r="N6" t="n">
-        <v>253976.1276098635</v>
+        <v>253941.3896844278</v>
       </c>
       <c r="O6" t="n">
-        <v>253976.1276098634</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="P6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844279</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>156.4795690023506</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>78.68031877585642</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>163.2564388383471</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>86.81590547846412</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7995219753647</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3169967867956</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>357.3121589800593</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>345.9779157201209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.4509352570724</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>184.5857009860161</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.574869756309683e-12</v>
+        <v>-2.386339083754669e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28767,19 +28767,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.131184035330079e-12</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28852,13 +28852,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31674,22 +31674,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31698,22 +31698,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,13 +32318,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>458.6770173132157</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,16 +33029,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>581.2949959490413</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>186.6878763515707</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2529048371025</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>422.1299181110988</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>528.9386420741739</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>390.3778271117889</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>562.710793489365</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>491.0077074256842</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>320.8355783388567</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>442.7406161691672</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>44.0916319071262</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>471.1188709150841</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>283.5755383312246</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
